--- a/kapitel-3/fuellmengen_fillfix.xlsx
+++ b/kapitel-3/fuellmengen_fillfix.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65ff0e6be96a7d93/Documents/Juri-Apps/repo/kapitel-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696CE1C7-A7F4-451D-ACBF-E2F5CCEED850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{696CE1C7-A7F4-451D-ACBF-E2F5CCEED850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A03089D-1C87-4134-B4DB-18480BD4E850}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="825" windowWidth="28215" windowHeight="14775" xr2:uid="{41690763-C65D-48FD-9F43-804B255AB05A}"/>
+    <workbookView xWindow="585" yWindow="780" windowWidth="15525" windowHeight="6330" xr2:uid="{41690763-C65D-48FD-9F43-804B255AB05A}"/>
   </bookViews>
   <sheets>
-    <sheet name="fillfix" sheetId="1" r:id="rId1"/>
+    <sheet name="Fillfix" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F58BA77-BECC-47DF-AD2A-C210E467AD79}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,17 +515,17 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B21" si="0">AVERAGE(D3:H3)</f>
-        <v>505.4</v>
+        <v>503.8</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" si="1">MAX(D3:H3)-MIN(D3:H3)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>505</v>
       </c>
       <c r="E3">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F3">
         <v>508</v>
@@ -819,14 +823,14 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>498.4</v>
+        <v>497.8</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E14">
         <v>496</v>
@@ -875,26 +879,26 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>495.8</v>
+        <v>500.2</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>494</v>
       </c>
       <c r="E16">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F16">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G16">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H16">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
